--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.487</v>
+        <v>16.513</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.742</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.282</v>
+        <v>15.445</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.977</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.038</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.228772889769804</v>
+        <v>9.998558145836672</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.4587142157695</v>
+        <v>13.19810363867076</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.22650807562045</v>
+        <v>14.33241568889014</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.702648646937345</v>
+        <v>3.02706966590172</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.07001583576712</v>
+        <v>12.49837728496415</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.63672181340844</v>
+        <v>13.05577401077898</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.784639721413654</v>
+        <v>6.571801627261671</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.00915624009752</v>
+        <v>19.25588290743836</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.77238657555922</v>
+        <v>21.82160972397138</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.24978697609983</v>
+        <v>20.00454529441453</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.32099352331697</v>
+        <v>24.05546097963443</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.85941127026653</v>
+        <v>28.34521153066408</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.245976152193307</v>
+        <v>8.627413120794252</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.84327565380875</v>
+        <v>14.46488810621671</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.8775532575152</v>
+        <v>16.41540141331248</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.7787733970525</v>
+        <v>9.627758642505842</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.01601142230546</v>
+        <v>27.91655375974284</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.87123147309848</v>
+        <v>40.77474407140263</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.529805547703344</v>
+        <v>2.634272101471236</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.74905733739768</v>
+        <v>13.16188542069058</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.5795010452507</v>
+        <v>27.43560920341513</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.929885537101402</v>
+        <v>3.83914198250632</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.66027718396191</v>
+        <v>24.88492271284015</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53.411176414772</v>
+        <v>51.88486469737021</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.73200888436944</v>
+        <v>28.31559224998046</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>50.85487954216136</v>
+        <v>48.99383388459412</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>69.17830222703051</v>
+        <v>69.34351898404795</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.607769138282585</v>
+        <v>5.466728542883889</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.12844971596475</v>
+        <v>39.0029231710127</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>59.30490989586242</v>
+        <v>56.23366274164678</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.42311581596322</v>
+        <v>13.17987256054847</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.58939525600928</v>
+        <v>33.47224311790087</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.39799513352838</v>
+        <v>43.08555177627257</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.769667279509186</v>
+        <v>3.247611414417744</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.88300282354272</v>
+        <v>23.11087733188398</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.59317539369155</v>
+        <v>35.01792536899374</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.092010284630959</v>
+        <v>3.865051422011177</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.20011763078893</v>
+        <v>40.89461002592283</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.1692022215404</v>
+        <v>53.62299145345138</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>55.48307154967208</v>
+        <v>50.20694121465716</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>71.53834426229383</v>
+        <v>65.52986133857073</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>78.00574528735103</v>
+        <v>73.92328353529864</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.03853994030955</v>
+        <v>16.02815626956332</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>57.93594815958313</v>
+        <v>54.48132525208666</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>65.08349470561959</v>
+        <v>60.90866059984664</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.750837181240041</v>
+        <v>4.22828461113156</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.41303391357793</v>
+        <v>30.89738904752631</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.20153456141899</v>
+        <v>39.92599728019356</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.61605706093945</v>
+        <v>3.202628240048575</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>39.50560796540198</v>
+        <v>36.42245053743451</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>41.17360534273692</v>
+        <v>39.61694125623372</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.036472936045907</v>
+        <v>4.069735260529129</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61.55133195809355</v>
+        <v>59.16817112641534</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>66.54525900720164</v>
+        <v>65.32276213855134</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>58.47783006418663</v>
+        <v>57.41122169454687</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>71.16450175792531</v>
+        <v>67.44309926614679</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.67125945062057</v>
+        <v>58.09331456673853</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7.560788823584382</v>
+        <v>6.023891065831517</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>45.09620141023056</v>
+        <v>41.14099139532526</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>52.83232537057726</v>
+        <v>49.53295470259191</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.309666186209679</v>
+        <v>6.980226442027426</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.16769811793938</v>
+        <v>35.95096528291454</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.40930258699607</v>
+        <v>41.86711732508559</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.41907282715562</v>
+        <v>2.196094943905841</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.27517559769576</v>
+        <v>21.05412371177545</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.85748625546657</v>
+        <v>32.16766285040474</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.205973101993326</v>
+        <v>2.750462598379791</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>42.60699046995177</v>
+        <v>42.41136954373128</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>58.03008460941412</v>
+        <v>55.54697460157972</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.83914868134002</v>
+        <v>44.27054066820673</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>61.99256314183397</v>
+        <v>62.76707361666533</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>69.85207953877352</v>
+        <v>70.42611069861063</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.586301086967616</v>
+        <v>4.77594370726279</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>54.27853881353674</v>
+        <v>52.03488083329479</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>59.8415546139405</v>
+        <v>56.92896581323759</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.3032842295234</v>
+        <v>7.33291781425164</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.777386661961</v>
+        <v>37.25950188838588</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.05528833920161</v>
+        <v>45.31597045860039</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.491980601884006</v>
+        <v>3.204700233047671</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.19509532431996</v>
+        <v>32.72740063252924</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.60526271654326</v>
+        <v>38.45351093091911</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5.512008117247831</v>
+        <v>3.405350209992957</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>56.53405314006436</v>
+        <v>55.09832624826635</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>75.95349003424559</v>
+        <v>73.57026113104546</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>62.66302864007026</v>
+        <v>58.6375991502903</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>80.99900805801488</v>
+        <v>79.88625016371157</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>85.3298479906323</v>
+        <v>82.53002106701504</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.281931412473227</v>
+        <v>5.365741085850541</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>67.23302352358465</v>
+        <v>63.87836145096841</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>72.14683890454472</v>
+        <v>68.80050581253087</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.29099690697791</v>
+        <v>15.91871722644128</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.20882725138259</v>
+        <v>29.00222815760778</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.12636967140897</v>
+        <v>36.90930727228624</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.314735484740609</v>
+        <v>3.004533038261961</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.82957711684637</v>
+        <v>32.52247410076457</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.65558507558651</v>
+        <v>34.71596289227716</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.882708414404409</v>
+        <v>4.875599750490021</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>58.509955786276</v>
+        <v>59.3464591808626</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.33660393419321</v>
+        <v>59.25264987203323</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>47.71736130419169</v>
+        <v>46.23016612053314</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>57.88096981375581</v>
+        <v>55.47747375677795</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>55.09287006426427</v>
+        <v>53.01604864044873</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.58704754863345</v>
+        <v>12.36665805104973</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.21249574402099</v>
+        <v>33.61041486851515</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.11742853453072</v>
+        <v>36.82726919903065</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.57268735894653</v>
+        <v>22.34410616449394</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.43455211153384</v>
+        <v>40.36791616134273</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.48835525372239</v>
+        <v>43.12675542390829</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.890501194725182</v>
+        <v>3.029314183458556</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.05621702967352</v>
+        <v>30.55301508746615</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.80853650800169</v>
+        <v>34.61900387412972</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.855388966166313</v>
+        <v>4.824249476840073</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53.9553780534546</v>
+        <v>54.39417244100412</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>61.99300565234</v>
+        <v>58.44265069626275</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.35506696061443</v>
+        <v>53.18033740212276</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>66.61855489079517</v>
+        <v>65.65752276663525</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>69.99033744120634</v>
+        <v>70.0442229271939</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.52607882823999</v>
+        <v>19.5422899859793</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>56.80614340998635</v>
+        <v>52.61833247726332</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>59.97327349411859</v>
+        <v>59.91870729972456</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.31008430103495</v>
+        <v>21.16528379497456</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.39634060093965</v>
+        <v>41.5946859527315</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.35956542286522</v>
+        <v>44.56703636949445</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3.124390079046638</v>
+        <v>2.85357162739966</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>37.29435352531437</v>
+        <v>34.593807405886</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.72419004530783</v>
+        <v>38.00483533215471</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5.196394113647887</v>
+        <v>4.677158817069145</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>62.54765286012162</v>
+        <v>61.26819877709346</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>74.36844343074314</v>
+        <v>71.46746294269845</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>69.78362124877286</v>
+        <v>64.64018336214569</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.85672020925944</v>
+        <v>72.89107553663089</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>84.8629510128151</v>
+        <v>80.92465248561622</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.42466302610676</v>
+        <v>20.30644217928983</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>66.62602329109711</v>
+        <v>63.46440085805625</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>71.38729516561865</v>
+        <v>68.87195776757206</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.373418773555198</v>
+        <v>11.80108397412578</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>13.43946718691007</v>
+        <v>14.87246351008189</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.3945475517241</v>
+        <v>15.65575291426084</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.233519513893057</v>
+        <v>3.205183543069083</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.42361526163695</v>
+        <v>11.02449621845474</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>14.68242132835729</v>
+        <v>11.48612112598417</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.753329059039775</v>
+        <v>8.166836381550894</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.24904794968285</v>
+        <v>22.0136249369974</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.04570527589422</v>
+        <v>22.88910245635457</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.40564767372094</v>
+        <v>20.53335318043464</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.18526578467928</v>
+        <v>23.2604374269343</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.38362677336311</v>
+        <v>29.6830916210333</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>61.62789513791175</v>
+        <v>61.63797993137328</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>62.03636085521795</v>
+        <v>64.04405112697501</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>59.49551173047723</v>
+        <v>61.85649929683547</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.747655195531909</v>
+        <v>9.480257623952387</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.11916438765878</v>
+        <v>27.86397866992471</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.6149329061823</v>
+        <v>40.05015190689082</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3.107607415869367</v>
+        <v>1.947469798298062</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.14801027836029</v>
+        <v>9.330351054592519</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.53258188750495</v>
+        <v>23.22837068141433</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.68923205115683</v>
+        <v>26.25065876509132</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>54.25496056663737</v>
+        <v>50.67735454544676</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.55519387047701</v>
+        <v>26.76289306245936</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.38405625701078</v>
+        <v>45.53357950359948</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>64.28319231284907</v>
+        <v>63.29314053275307</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7.325802406025396</v>
+        <v>6.104540265924005</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>41.53376848021949</v>
+        <v>39.23545087367177</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.51688273083936</v>
+        <v>47.6830532653218</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.73554548170251</v>
+        <v>22.79601885720544</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.62953022163094</v>
+        <v>32.9890300554044</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.9319069299933</v>
+        <v>42.24031017216188</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4.922153695752034</v>
+        <v>3.131872332296041</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.07935571404651</v>
+        <v>15.62895138294547</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.51946406618444</v>
+        <v>25.61731858099074</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.877658019166834</v>
+        <v>8.097334474577671</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>41.16119306510065</v>
+        <v>37.91454986168561</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>60.81250312331591</v>
+        <v>57.59223114890527</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.00803272038158</v>
+        <v>36.87478374253421</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.85308932511755</v>
+        <v>52.32738245794457</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>75.32898014330944</v>
+        <v>70.99156594061301</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>23.49994477727368</v>
+        <v>23.39809144990349</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.948771251867</v>
+        <v>54.5975482986947</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>64.01741233803298</v>
+        <v>61.35067377578136</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.921514242461935</v>
+        <v>6.391809999233654</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.31300312274781</v>
+        <v>21.23942730932931</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.09637099635827</v>
+        <v>30.10991397420706</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.828319865566176</v>
+        <v>3.516791927935834</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>32.18473069401791</v>
+        <v>28.84135288138512</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>36.76195004852518</v>
+        <v>35.96401142777047</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>9.252948612983982</v>
+        <v>8.779312199829569</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>60.2374394627503</v>
+        <v>60.10370505294151</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>60.2276077684576</v>
+        <v>61.68535192039431</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.21380783751937</v>
+        <v>44.89237816571637</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>60.37651301162314</v>
+        <v>56.27722795968772</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>61.28250188420118</v>
+        <v>57.27759389277681</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>13.14592024586071</v>
+        <v>13.18702444964094</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.0743875963487</v>
+        <v>10.87922116493186</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>11.89795296516352</v>
+        <v>11.89202004251665</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.70527768952379</v>
+        <v>24.60541640470016</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>39.78609107717986</v>
+        <v>41.41093321612807</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>43.63009764638414</v>
+        <v>41.07104827033205</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5.794289728927058</v>
+        <v>3.955003101872226</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.90355113516195</v>
+        <v>31.25763543765911</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.09136704601889</v>
+        <v>38.23736653459075</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>58.19417517126887</v>
+        <v>57.04867768845284</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>63.09664540464938</v>
+        <v>59.91231923246885</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>60.89738020614475</v>
+        <v>58.07470763268361</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>70.71276707576735</v>
+        <v>70.282653378682</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>74.72879105090345</v>
+        <v>73.44995695429911</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.12801971062868</v>
+        <v>31.54465868324671</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>64.02403600312573</v>
+        <v>60.42991330034165</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>66.81842875428271</v>
+        <v>64.14213246804886</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.79750640810611</v>
+        <v>25.34935714121634</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.69464945784298</v>
+        <v>42.68148099169305</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.56850007112462</v>
+        <v>44.2438494132585</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>4.404307031021524</v>
+        <v>3.004430312580066</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.46503346999141</v>
+        <v>26.58221349652415</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.18197902843326</v>
+        <v>33.6872519081118</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>11.16831563996894</v>
+        <v>8.859739128684662</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>60.15398515263023</v>
+        <v>56.00646282995987</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>71.53032656481778</v>
+        <v>67.47928129169482</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>69.80105310750837</v>
+        <v>63.41175894005566</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>79.38338230314419</v>
+        <v>72.85011680975354</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>82.2973310984928</v>
+        <v>77.21723089895931</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.65420782174807</v>
+        <v>31.43094395642055</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>67.19531889045479</v>
+        <v>64.08746063956147</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>73.69399125727425</v>
+        <v>71.08728018060744</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>6.810942884058662</v>
+        <v>5.467234354590829</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.3982295043239</v>
+        <v>18.88349168466806</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.00745727223674</v>
+        <v>30.92337672594738</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>3.747344896676484</v>
+        <v>2.668337580912649</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.82711871206446</v>
+        <v>37.49598186102537</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>37.64431435378786</v>
+        <v>35.97538910072656</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.58008562565702</v>
+        <v>6.954991452231273</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>65.26867793990519</v>
+        <v>63.72604739681823</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>64.46551152357799</v>
+        <v>64.94543326786268</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>49.05133524395305</v>
+        <v>46.1441696373011</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>62.04386367746068</v>
+        <v>58.32186177194369</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>64.26899025642022</v>
+        <v>60.07263664774233</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>8.236197350801895</v>
+        <v>7.932664051955179</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>7.870326500965199</v>
+        <v>8.028835429288876</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.481126831650666</v>
+        <v>8.755313626755644</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.7620038453257</v>
+        <v>17.06380929552686</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>41.84302925125165</v>
+        <v>44.77371295832059</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.16986161249936</v>
+        <v>45.35337174177958</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5.69089576255012</v>
+        <v>3.356066304838986</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>37.54801593743005</v>
+        <v>37.29176615877174</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>43.42972003277733</v>
+        <v>44.65365396817216</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>5.860193297058341</v>
+        <v>3.903819153183349</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>64.19574728508198</v>
+        <v>63.49214114994635</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>66.96250280223828</v>
+        <v>66.01812225496208</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.13900170126023</v>
+        <v>51.23606069005724</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>65.24661870533409</v>
+        <v>66.17231012765552</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>75.00620973520822</v>
+        <v>74.98813763436492</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.64792522327865</v>
+        <v>15.50709525232579</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>65.47818231603071</v>
+        <v>63.35049835631453</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>69.0252902110382</v>
+        <v>67.26557323594258</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.09566653490923</v>
+        <v>19.07608552939507</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>4.955682524795119</v>
+        <v>3.280098479897241</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.04440903700969</v>
+        <v>34.74036942367525</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>41.71945913956948</v>
+        <v>36.78577331940881</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.977247062852317</v>
+        <v>6.298197175867116</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>64.86797561787745</v>
+        <v>61.99344457178418</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>73.24863492017413</v>
+        <v>70.58923060802397</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>68.39713635849324</v>
+        <v>65.32952409979255</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>78.20148724806685</v>
+        <v>77.07109554883866</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>84.59165875169671</v>
+        <v>81.85203563962487</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.7204509811754</v>
+        <v>14.89775938536868</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>71.53058141288021</v>
+        <v>67.87181206883409</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>74.91792420798883</v>
+        <v>72.10976797746837</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2.882908458740602</v>
+        <v>7.943330931923956</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>8.29983201285761</v>
+        <v>7.976047421291156</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>9.719924895535641</v>
+        <v>9.362315558890618</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-2.18442501294988</v>
+        <v>2.846911530104805</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.4909354118744</v>
+        <v>10.00639933741837</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.31368801759514</v>
+        <v>10.13599442715158</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.7270774301379817</v>
+        <v>6.031419172167912</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.02713015983713</v>
+        <v>16.33805751680449</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.47642262072383</v>
+        <v>18.69560519279818</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.21755236447869</v>
+        <v>22.73992741400458</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.86828553782948</v>
+        <v>27.72648388374658</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.81758345153023</v>
+        <v>30.83036588404921</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>3.740170190162758</v>
+        <v>6.449831788268334</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>8.62450929523856</v>
+        <v>8.346003946763183</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>10.94030229111112</v>
+        <v>10.5866403129035</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>9.433360865849874</v>
+        <v>9.436089603416757</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.286791368401</v>
+        <v>27.99579001738331</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>31.95923821028375</v>
+        <v>35.07409135955512</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>5.282223193227352</v>
+        <v>3.337149352779576</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>21.00961413493463</v>
+        <v>17.2355021010214</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.63008505330126</v>
+        <v>28.84384293819314</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>8.265825732140957</v>
+        <v>7.170054269071507</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>32.72136035737161</v>
+        <v>33.86422843818112</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>49.51263943298819</v>
+        <v>48.83623364766407</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>34.47508588431529</v>
+        <v>34.05417612893844</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>47.61006026867722</v>
+        <v>48.35221157880649</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>52.94509724432572</v>
+        <v>54.19130683397541</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>8.569945208164434</v>
+        <v>8.032885757259905</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>39.76124925142633</v>
+        <v>40.24513505096716</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.13911101855314</v>
+        <v>48.27165629960232</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.710759361138322</v>
+        <v>9.239734046902054</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.4368636851912</v>
+        <v>26.92395033250408</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>37.30471609865498</v>
+        <v>38.70020704853675</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>2.952535739039465</v>
+        <v>2.597095203829099</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.83545349962237</v>
+        <v>24.71734453181864</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.17695352569982</v>
+        <v>33.10761085663696</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>7.289561929667524</v>
+        <v>6.650744650659551</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.80589403701357</v>
+        <v>44.93187183196738</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>57.24199982414559</v>
+        <v>55.7595985752905</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>58.31783367305634</v>
+        <v>55.56155097225083</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>69.97815437381961</v>
+        <v>69.38313998183163</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>74.54160555592401</v>
+        <v>69.61354979423528</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.75592073861102</v>
+        <v>10.01517243422135</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>57.3524347167061</v>
+        <v>54.187894422406</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68.20912560157632</v>
+        <v>64.58574126612197</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.371288899058882</v>
+        <v>4.1587787994937</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>6.663373133950202</v>
+        <v>11.22889481425018</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>11.99139235683436</v>
+        <v>12.40909963236698</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-1.648979295116511</v>
+        <v>2.200956023366814</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10.20047018019337</v>
+        <v>8.891255398298021</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.96731605536547</v>
+        <v>13.34038695867499</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1.306223347928331</v>
+        <v>2.900322426044159</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.99419659655187</v>
+        <v>14.13668676510228</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.25247874046037</v>
+        <v>11.73184274586369</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.18025243107653</v>
+        <v>12.83823585701009</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.05695155626774</v>
+        <v>14.69205271828986</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.18632299463477</v>
+        <v>15.00272514518241</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>5.247693668450328</v>
+        <v>7.197974082450642</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>11.53940500096454</v>
+        <v>13.6774782067116</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>12.23649541652007</v>
+        <v>13.93552435710339</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2.442700506659229</v>
+        <v>2.070145899069974</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.98145719843701</v>
+        <v>6.791064355168718</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>18.12090638446475</v>
+        <v>17.64465825682701</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1.680744663929701</v>
+        <v>2.070281488566692</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>4.653137754971766</v>
+        <v>5.091308772940391</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.81446751980181</v>
+        <v>10.80494272524935</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1.034352227720827</v>
+        <v>4.105331717320908</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.28575327056364</v>
+        <v>7.35348935212367</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>26.25036266869708</v>
+        <v>27.02199730436699</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.59461474941821</v>
+        <v>10.28923920096836</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>23.99439067895016</v>
+        <v>23.34143784435285</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.08097002725924</v>
+        <v>40.86235121256989</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.03294652416862576</v>
+        <v>2.137958665240379</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.00019942497132</v>
+        <v>11.21389482426486</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.78997711530433</v>
+        <v>12.63317286031546</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>6.316249644242106</v>
+        <v>3.085421607680832</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.17850119943062</v>
+        <v>9.211367684315238</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.67140997862098</v>
+        <v>25.58387727414604</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-3.622485511282225</v>
+        <v>1.978738290964095</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.519667127797632</v>
+        <v>6.643879325625424</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.48506151456523</v>
+        <v>22.39971171732898</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.3965716569373043</v>
+        <v>3.206790660291727</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.91693477438292</v>
+        <v>12.08905744389379</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>47.8642869950706</v>
+        <v>44.61098292882836</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.32495557556638</v>
+        <v>17.22048828150714</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>47.81252558284827</v>
+        <v>45.53743438435761</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>63.47628583791615</v>
+        <v>62.943002553658</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-1.752166557465749</v>
+        <v>2.21603621301935</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>12.12930916570749</v>
+        <v>10.89206557185934</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>22.72497038004246</v>
+        <v>20.01013035145418</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>10.67707115372553</v>
+        <v>13.45034706613329</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.53569310252807</v>
+        <v>19.1469852461353</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.0731263922088</v>
+        <v>37.42759967662602</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>6.360435338339727</v>
+        <v>3.634042831332074</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>42.0845112372341</v>
+        <v>43.57151615056615</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>43.97913394341568</v>
+        <v>43.33830186278388</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>8.329662655336179</v>
+        <v>6.903665860171785</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>60.77182413205329</v>
+        <v>61.22559966918151</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>65.40797489742948</v>
+        <v>66.29304384373125</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>53.34654756393719</v>
+        <v>50.75284068213033</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>59.98097172964038</v>
+        <v>56.28298496059772</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>61.22043050580243</v>
+        <v>57.77966885629346</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>23.8204288582821</v>
+        <v>24.48262273486353</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>39.54810944203464</v>
+        <v>39.19376509550489</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>65.48247534132065</v>
+        <v>67.995219401661</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>10.08148795932357</v>
+        <v>11.22591579491264</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.82056375225294</v>
+        <v>32.13232945501534</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.73154841244382</v>
+        <v>34.33667897886397</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>5.290915269263547</v>
+        <v>2.906634461442014</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.79046222836276</v>
+        <v>28.90129102523982</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.36253970316614</v>
+        <v>31.06451772231088</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6.553475481906599</v>
+        <v>6.482119172880978</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>46.7853234701323</v>
+        <v>47.42797740890229</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>53.69177425652628</v>
+        <v>50.72802032296796</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>44.53696054266406</v>
+        <v>43.52539472511238</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>52.60624492885394</v>
+        <v>52.75463429346154</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>58.6070741696812</v>
+        <v>56.76256403072007</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.10826549628428</v>
+        <v>19.10403083625643</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>50.57030286288983</v>
+        <v>46.93107503873092</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>55.47886581719175</v>
+        <v>50.83869496290886</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>15.22552069092942</v>
+        <v>15.13589279034305</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.0923846540719</v>
+        <v>31.01553581858267</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.19491376010846</v>
+        <v>42.54334744964171</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>4.829524604965133</v>
+        <v>2.939555666101811</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.38374388586701</v>
+        <v>36.21616434222739</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.86944835302697</v>
+        <v>38.46461566192366</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>9.764530278260082</v>
+        <v>7.7688561757756</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>59.74030719637155</v>
+        <v>57.74548524006681</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>71.65040008865336</v>
+        <v>69.69322315991887</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>63.04512225363093</v>
+        <v>59.38992558851578</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>73.68320550853305</v>
+        <v>70.29396434552585</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>77.73374858684306</v>
+        <v>72.69584731341143</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.99099408183287</v>
+        <v>18.29896096196901</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>64.78077636558157</v>
+        <v>61.65855163504318</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>74.80803508475907</v>
+        <v>71.90300732702607</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.836176329883642</v>
+        <v>8.997907498139885</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>11.69747639749477</v>
+        <v>10.74693897406507</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>14.0388214373523</v>
+        <v>11.49822006094422</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.046475569424146</v>
+        <v>2.801453835982976</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10.47674507050995</v>
+        <v>9.552360992494911</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.54348655972634</v>
+        <v>10.29163985225856</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.275244514178915</v>
+        <v>6.049106987111777</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.575830175114</v>
+        <v>14.58541364396389</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.66740860543113</v>
+        <v>15.80705154851199</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.6355942909967</v>
+        <v>14.3152050274878</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>20.15526520437925</v>
+        <v>17.30430308045411</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.3873563796878</v>
+        <v>20.11251599783981</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>4.756533770682726</v>
+        <v>7.347571513670633</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.75578496988524</v>
+        <v>10.60761897947615</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>15.90607814998033</v>
+        <v>12.99615696035469</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>6.576364755326701</v>
+        <v>6.21774785719769</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.1446318786248</v>
+        <v>14.49758973001672</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.96528354221412</v>
+        <v>27.6148207719293</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>1.050179647930129</v>
+        <v>2.879699049941188</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>7.561744130388028</v>
+        <v>5.436664413680784</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.48270590567691</v>
+        <v>23.14148926723678</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.23034475407281</v>
+        <v>5.069775237866398</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>11.97817953235323</v>
+        <v>10.25350527206183</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.85378733216325</v>
+        <v>36.91109977748616</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.78347852096907</v>
+        <v>14.38009299772545</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.44115112809201</v>
+        <v>25.5407591206526</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>38.51380678686658</v>
+        <v>40.06541333263004</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>3.708999847240769</v>
+        <v>3.531364953284324</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.01698493139991</v>
+        <v>19.04782640292638</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.31525278275173</v>
+        <v>27.95013653612544</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.39364588474472</v>
+        <v>10.19767188582943</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.56915888190444</v>
+        <v>21.44012950748128</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.9161641585538</v>
+        <v>35.41927608089721</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.581746758968716</v>
+        <v>3.064888729477236</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.30420952885397</v>
+        <v>13.43961192314615</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.00943972689359</v>
+        <v>28.19356646534051</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>9.051786666099954</v>
+        <v>9.711691849077017</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.59873943165431</v>
+        <v>25.09791382076679</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>50.65673951114749</v>
+        <v>47.79331780869018</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.89648651752172</v>
+        <v>27.99096595551885</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>40.51107718446568</v>
+        <v>35.86193533366213</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>63.9315697470519</v>
+        <v>60.13501659485212</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.10791873561816</v>
+        <v>18.0458278578325</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>36.26106368745594</v>
+        <v>31.86018624179543</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>48.99650314131576</v>
+        <v>46.32539450390881</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>0.7243864579296933</v>
+        <v>2.20454529738387</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>3.936151377456337</v>
+        <v>2.612756589703988</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>7.762919599700197</v>
+        <v>8.03092132563842</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-3.590622446921778</v>
+        <v>2.07046398216654</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.062703279872064</v>
+        <v>2.502806269335167</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>5.28997829247761</v>
+        <v>3.863804443252612</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3.765380027669099</v>
+        <v>7.277786475720607</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.36680888871818</v>
+        <v>8.724622924364901</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.69842018897632</v>
+        <v>9.078095400066392</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>4.016813425542537</v>
+        <v>3.454612549878878</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.348280496466884</v>
+        <v>3.732860127319725</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.6577387497996</v>
+        <v>16.76248682649581</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1.459893678042157</v>
+        <v>2.070120005063622</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>3.346318421660321</v>
+        <v>2.142478970253396</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.730109988301997</v>
+        <v>3.113922642189493</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.55175426868705</v>
+        <v>17.01214654099775</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.60863011021263</v>
+        <v>32.29590862267354</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.7345542677845</v>
+        <v>34.95910579460261</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>5.673963006874445</v>
+        <v>3.53056305343317</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.4540195307812</v>
+        <v>24.0517804714314</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.55811379993199</v>
+        <v>29.57206536645097</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>10.12371045150859</v>
+        <v>7.877160993837023</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>48.8656235734704</v>
+        <v>49.16906389311552</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>54.43807424419079</v>
+        <v>53.81663543158477</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.85114254591878</v>
+        <v>44.42520514888525</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>52.96459273887186</v>
+        <v>54.23716568447951</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>57.55480423333123</v>
+        <v>53.51852280408382</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>15.20949594612758</v>
+        <v>16.60794953751403</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.77321012429879</v>
+        <v>45.45056137174822</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>50.64313647737966</v>
+        <v>51.56494432130494</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.89039200517421</v>
+        <v>18.77753284452304</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.27687390401955</v>
+        <v>35.28241903433954</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.31034692808149</v>
+        <v>46.46350997936327</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>3.354467838649366</v>
+        <v>2.950207215918951</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.16780969133116</v>
+        <v>30.38915399985988</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>37.35817671728248</v>
+        <v>34.54561495813322</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.612426414896198</v>
+        <v>7.583319067494983</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>58.55113359943639</v>
+        <v>55.54308016959063</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>65.94444031551203</v>
+        <v>64.94330836768698</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>63.49146906987375</v>
+        <v>60.39987360753835</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>73.63956119539861</v>
+        <v>70.85760755052227</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>77.98757526862251</v>
+        <v>74.01616847052696</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.41410204502088</v>
+        <v>13.22630429295952</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>62.47473547704093</v>
+        <v>59.09679864495055</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>66.64517326397802</v>
+        <v>63.75838722213565</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>8.990607894030042</v>
+        <v>12.41396818161004</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.82814580445921</v>
+        <v>13.94165746163486</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>17.46135840903541</v>
+        <v>14.52469407172594</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.9019841812779426</v>
+        <v>4.867534743211188</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.88332314014948</v>
+        <v>14.71043108533483</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.09229214572112</v>
+        <v>15.58994552229371</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>9.294588935046875</v>
+        <v>12.32539842133364</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.49076838059505</v>
+        <v>22.94478016379968</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.25533232384931</v>
+        <v>23.7627356513151</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.35584323021777</v>
+        <v>20.89134473550974</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.08786033444957</v>
+        <v>25.3120727725185</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.73376418367644</v>
+        <v>29.19821677823952</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.30362542895297</v>
+        <v>15.62316203228131</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.99498608086214</v>
+        <v>14.2413991550183</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>20.06116017405511</v>
+        <v>16.43922836879048</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.624072779356332</v>
+        <v>4.644575088831136</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.57332399420743</v>
+        <v>10.81488348576101</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.36442353154955</v>
+        <v>20.42149528644773</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-3.591058718952088</v>
+        <v>1.854436828101612</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>4.882435719475843</v>
+        <v>4.593144104799364</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.804361404385</v>
+        <v>16.09704669501475</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-2.831816948697732</v>
+        <v>1.771893694088998</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.624689911755084</v>
+        <v>7.940777295887919</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.65840188538098</v>
+        <v>26.06746266881595</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.68761164968733</v>
+        <v>11.63643023138843</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>19.79932349859891</v>
+        <v>18.29168532461345</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.42237167138234</v>
+        <v>29.48701889026348</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-1.809012998008097</v>
+        <v>3.355196404637212</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.46211632399169</v>
+        <v>11.61051874005705</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.30690624699203</v>
+        <v>19.10852439055116</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>14.90558106315839</v>
+        <v>17.35512864838201</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.3191074188709</v>
+        <v>28.53001397530173</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.86807990724702</v>
+        <v>32.30165975301032</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>0.7412265522045871</v>
+        <v>3.331618424425123</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.88646548394754</v>
+        <v>18.91008493412479</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.04596060951511</v>
+        <v>22.29273036549462</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.628166551805037</v>
+        <v>7.133525480213176</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>36.00390261282464</v>
+        <v>35.45585486877535</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>47.21829009397041</v>
+        <v>46.86029113366671</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>41.79863827221286</v>
+        <v>37.81919213157948</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>46.36516133028643</v>
+        <v>41.54907026094923</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>59.00822360106591</v>
+        <v>56.22301963844389</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>11.05869602975632</v>
+        <v>12.17666976372932</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.31010759898312</v>
+        <v>34.91684687948785</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.38260649449907</v>
+        <v>39.2313944429803</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>3.529815244243977</v>
+        <v>4.101964822747995</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>6.593097742402339</v>
+        <v>5.488293350241396</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>7.448624436946449</v>
+        <v>5.406305809490444</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-1.875348441589622</v>
+        <v>1.698202343985692</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.430286921986873</v>
+        <v>4.370116473752859</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.305955805306969</v>
+        <v>4.930595458565541</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.858853833399852</v>
+        <v>7.579248489255299</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>11.62511346168261</v>
+        <v>9.847096737760246</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.16598839725014</v>
+        <v>8.921585293372743</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.96008738700602</v>
+        <v>5.051119957192373</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.65816310603882</v>
+        <v>3.886328822406195</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.60032950535944</v>
+        <v>9.376767728381747</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.2374332760348</v>
+        <v>3.217361276638012</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.676371614220411</v>
+        <v>5.690303547481609</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.912945854307331</v>
+        <v>5.745320448629311</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.8383283231477634</v>
+        <v>2.67045920209101</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.084800022868507</v>
+        <v>4.402679410547048</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.764147546169475</v>
+        <v>4.450799325706903</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-3.160977019884715</v>
+        <v>2.06992882520661</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.02287518907001385</v>
+        <v>1.727826903698411</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>3.99610835491157</v>
+        <v>4.346859908890785</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-2.439966049150151</v>
+        <v>2.560332539316285</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>5.867976208691434</v>
+        <v>4.981482776452133</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.094435684420944</v>
+        <v>6.153996306854207</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.449338262323742</v>
+        <v>3.197128217738822</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.541310001395932</v>
+        <v>4.634906311406628</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.271603546340472</v>
+        <v>5.264338826710699</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-3.190964187947763</v>
+        <v>2.069968735473626</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>4.066623016079529</v>
+        <v>3.495161416879782</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.658274842894265</v>
+        <v>4.030121744996801</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.92302301794018</v>
+        <v>18.67902023417918</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.02853046516341</v>
+        <v>22.69494272585114</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.6622070307925</v>
+        <v>22.25309298451992</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.466831079515316</v>
+        <v>3.535134922756498</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.82440612566582</v>
+        <v>12.88066771143618</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>15.90954617147956</v>
+        <v>14.69417011129651</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.3880699935549</v>
+        <v>11.09490930125302</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.53927928706588</v>
+        <v>26.29179493620825</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.91485951192763</v>
+        <v>29.16165614600851</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.71121011096149</v>
+        <v>27.31443798144131</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.92850735637301</v>
+        <v>29.46151936253012</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.24223868356782</v>
+        <v>33.12718440296067</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.93343255726547</v>
+        <v>20.05494482635791</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.73825692294172</v>
+        <v>25.17239112517282</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.18437435202769</v>
+        <v>27.93294813226926</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.66140604297347</v>
+        <v>18.38049286965918</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.1292916616216</v>
+        <v>29.61293834797356</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.43266580948591</v>
+        <v>38.26833474665506</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.932819877103892</v>
+        <v>3.588827343561299</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.9022037023028</v>
+        <v>19.04015457278922</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.57333634739579</v>
+        <v>24.31005859343614</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.00718321271879</v>
+        <v>10.89147509811613</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>42.9850441021852</v>
+        <v>42.46347504893669</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>47.3429234928937</v>
+        <v>47.79865326846952</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>39.27560515170857</v>
+        <v>39.6683375849578</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>46.00859939156111</v>
+        <v>46.08540525125039</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>48.78822766115636</v>
+        <v>48.760258088535</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.15159858128319</v>
+        <v>28.0242313863754</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>52.5764321984493</v>
+        <v>49.56656561188494</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>55.72626108844057</v>
+        <v>53.63766054440404</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.40519879033647</v>
+        <v>15.4251169785488</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.09653520162883</v>
+        <v>26.33256656025428</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.24664744281215</v>
+        <v>31.03790361681005</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-0.6809785494446245</v>
+        <v>1.524220945397154</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.26053287700606</v>
+        <v>9.838105213815059</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.47550997370781</v>
+        <v>13.54641235706857</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.583829558537861</v>
+        <v>7.788559702377313</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.49262019302503</v>
+        <v>26.92794536933129</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.85596839393136</v>
+        <v>31.43206359855726</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.07922503197517</v>
+        <v>25.5152277443709</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.77371484458878</v>
+        <v>31.49896826927612</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>41.04510249684527</v>
+        <v>34.80824899559906</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>15.00653878668476</v>
+        <v>17.36878359478164</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>37.45499021357993</v>
+        <v>35.63099486107475</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>42.82394690246296</v>
+        <v>38.2199787130466</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.54301550995712</v>
+        <v>21.09502945457844</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.65567093772405</v>
+        <v>33.29949285487682</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.55449318313796</v>
+        <v>43.77450893646274</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.484906057811255</v>
+        <v>2.90760121705862</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.33849065673363</v>
+        <v>20.47206065783606</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.36968451656014</v>
+        <v>24.0478388370094</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>11.5569196172621</v>
+        <v>11.02206182664868</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>45.65133544771692</v>
+        <v>43.22013891361866</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>57.82264632633236</v>
+        <v>52.19882017599916</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>56.56796832861382</v>
+        <v>53.45180677207715</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>63.59028773151175</v>
+        <v>59.92921778437434</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>67.62233328565587</v>
+        <v>62.53876846203889</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.49332513424337</v>
+        <v>26.72008559636196</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>54.27955778939445</v>
+        <v>50.53056272450735</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>61.59129498060024</v>
+        <v>55.20427360718469</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.98389569063577</v>
+        <v>15.02130813034884</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.82912220938201</v>
+        <v>29.16055425768146</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.41812922528487</v>
+        <v>37.3393250413383</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>6.653430497820963</v>
+        <v>3.899288608193189</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.07432262255757</v>
+        <v>33.03047250984022</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.00272785763573</v>
+        <v>36.98765624766496</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>13.04275212841291</v>
+        <v>9.237947984171793</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>56.85658928964884</v>
+        <v>54.52558188607834</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>60.60251558871655</v>
+        <v>62.81088936384141</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>58.24653040406147</v>
+        <v>55.16960224077296</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>64.77807303656695</v>
+        <v>60.49482702277891</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>64.42847922628989</v>
+        <v>63.26065902319733</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.94876049372764</v>
+        <v>13.92454644155329</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>40.01942532292843</v>
+        <v>38.80922044602083</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>48.54515603666282</v>
+        <v>50.37132253207857</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>10.18929697344863</v>
+        <v>10.10370394876008</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.1128428023177</v>
+        <v>32.33020875407612</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.85375113857107</v>
+        <v>36.8188765114186</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>5.221631492882238</v>
+        <v>3.205086722361067</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.18103761790194</v>
+        <v>21.86065144898057</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.95053518557955</v>
+        <v>31.95783999645542</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>8.069558144354936</v>
+        <v>5.655640727977801</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.31195409264837</v>
+        <v>41.41684814481727</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>50.78446577248405</v>
+        <v>47.98585936500204</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.87422549581292</v>
+        <v>42.46298827317791</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>50.06393729540814</v>
+        <v>50.3359238013779</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>57.14194957659441</v>
+        <v>56.46459804189595</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>7.470504073963468</v>
+        <v>7.211747680121917</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.29935960213728</v>
+        <v>41.13529975708295</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>50.35891280248016</v>
+        <v>48.79054594035822</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.744119882299479</v>
+        <v>7.751338104742089</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.48192874553257</v>
+        <v>29.94550094055551</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.23774776094665</v>
+        <v>38.6835008852818</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>4.492454024647799</v>
+        <v>2.921626392419036</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.39340547738173</v>
+        <v>23.86010223468583</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.35353049418143</v>
+        <v>37.50134341245436</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>7.999906942274844</v>
+        <v>5.517927647496847</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.555962490221</v>
+        <v>41.67716547576211</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>63.70967380327223</v>
+        <v>61.9407195374982</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>53.17451284449847</v>
+        <v>50.84179909779091</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>65.19514506051044</v>
+        <v>64.48899817003958</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>77.40713493263969</v>
+        <v>76.16185747918647</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>6.289521281778224</v>
+        <v>5.446443096926462</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.23587859442256</v>
+        <v>50.79269069206452</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>64.05839895064878</v>
+        <v>63.01776923326445</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>9.422842919380496</v>
+        <v>9.659326560801308</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>23.7618454807475</v>
+        <v>21.77731229837839</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.56573651636793</v>
+        <v>35.40972158209537</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>5.978778470684247</v>
+        <v>3.205973931306904</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.36524728785021</v>
+        <v>41.59199543332735</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.54159108859163</v>
+        <v>46.53263335902454</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>9.022872350815419</v>
+        <v>7.79933034480236</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>65.82625663097677</v>
+        <v>63.7030036118486</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>65.74721434259791</v>
+        <v>65.17461227418754</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>58.18872333972362</v>
+        <v>55.01505149981035</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>57.02500245956635</v>
+        <v>54.26239269632581</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>59.58226584162824</v>
+        <v>56.4957195708158</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.41024072957348</v>
+        <v>8.837769655339301</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.19339655665809</v>
+        <v>29.75249364009711</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>64.05506341076583</v>
+        <v>62.7674266957309</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.91434638145643</v>
+        <v>14.36812957236517</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.24614506209265</v>
+        <v>34.09145572009501</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.21801113334644</v>
+        <v>36.28041491528082</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>4.274946719223632</v>
+        <v>3.130549545135295</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.36193835637158</v>
+        <v>26.45627124810161</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.47242640419087</v>
+        <v>31.05966687211915</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>3.708112729643993</v>
+        <v>5.402358423727037</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>45.55896000459424</v>
+        <v>44.41453491925743</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>53.20117600692397</v>
+        <v>47.43200165595716</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.33130687000364</v>
+        <v>42.06158064036168</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>52.3198049870397</v>
+        <v>49.67739490811095</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>59.62804073850331</v>
+        <v>53.47073374687022</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>7.946637517035963</v>
+        <v>10.07871663462687</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.59519311483852</v>
+        <v>41.50329917438484</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>54.40263543143547</v>
+        <v>47.76988712217425</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>14.1634221734638</v>
+        <v>12.09644120169052</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.17024175918425</v>
+        <v>31.70204164784284</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.42121494686086</v>
+        <v>40.23697783740866</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>4.36326381508249</v>
+        <v>3.210427127024023</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>32.40640290539401</v>
+        <v>31.65711015244659</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.06372455898376</v>
+        <v>37.5586067098474</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.639517843895263</v>
+        <v>5.689128287493617</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>53.48234186408104</v>
+        <v>51.29711313236261</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>66.00160537932305</v>
+        <v>62.1423837947205</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>63.94498947338673</v>
+        <v>60.24293382408399</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>74.84191854357616</v>
+        <v>68.24047231889301</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>79.93320934370117</v>
+        <v>75.06373493441251</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>9.268721345611368</v>
+        <v>7.936347510759873</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>58.93037858844102</v>
+        <v>54.65357153128006</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>68.87918703645957</v>
+        <v>65.05852563115253</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>17.61842442483203</v>
+        <v>19.96334636293541</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.2716320746527</v>
+        <v>23.47373840931601</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.39195162545342</v>
+        <v>37.41294238011818</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>13.75988123921366</v>
+        <v>10.81701296396404</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>49.12748050339099</v>
+        <v>50.59157416344733</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>52.31669775785756</v>
+        <v>53.7685528358268</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.45919236285713</v>
+        <v>12.88845517754754</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>65.61103068913047</v>
+        <v>62.7309218461894</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>70.20809297650791</v>
+        <v>67.8776996457611</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>55.68083183271902</v>
+        <v>52.55250738606746</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>56.01780663082991</v>
+        <v>53.11153222887746</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>56.64709592218517</v>
+        <v>53.75370726736049</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>18.27418162129718</v>
+        <v>18.9118484598439</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.67848169221321</v>
+        <v>26.63730323998899</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>49.23070910461529</v>
+        <v>47.71036944025363</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.8451564085973</v>
+        <v>24.25563496443404</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.08536305428883</v>
+        <v>34.23188523231662</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>40.41573956654398</v>
+        <v>38.42917576278821</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.3833250323145</v>
+        <v>37.80600531878644</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>47.91543495565159</v>
+        <v>50.31201707644033</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>57.26029279998264</v>
+        <v>54.08131833298235</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.66179594671432</v>
+        <v>9.129547521021159</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>46.30413029733797</v>
+        <v>43.7051150044237</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>57.69895480463855</v>
+        <v>50.97639538220885</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>44.59767735032671</v>
+        <v>44.08908400806666</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>53.19660834106269</v>
+        <v>49.91304078415045</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>57.4576159610186</v>
+        <v>53.20155245480807</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.3049465464092</v>
+        <v>24.53428203134709</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>48.24291136985606</v>
+        <v>43.66501869097294</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>55.78362712823581</v>
+        <v>49.49449421486091</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.76783766627592</v>
+        <v>23.37014561266667</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.0219196311465</v>
+        <v>32.50250709748088</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>43.11189772135505</v>
+        <v>39.82018650560524</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.57984799769823</v>
+        <v>38.85801143986743</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54.46961515912297</v>
+        <v>55.9262434525873</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>59.05486116508971</v>
+        <v>57.36333563630905</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.30815855736105</v>
+        <v>11.38606473224271</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.33222756443304</v>
+        <v>55.4390258461645</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>68.81704980680344</v>
+        <v>64.67282842751699</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>71.76530270414256</v>
+        <v>64.39242725100834</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>75.86961225532812</v>
+        <v>69.80223190152236</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>80.20438246260537</v>
+        <v>75.57674025897661</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.43061489867312</v>
+        <v>25.26816338706037</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>61.81232179004078</v>
+        <v>55.54555636087626</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>71.81823994951844</v>
+        <v>66.3215512106184</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.912778771813358</v>
+        <v>6.471449752747446</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.50957073898052</v>
+        <v>23.54628470958472</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.08001327804248</v>
+        <v>33.95988696807397</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3.241291084475254</v>
+        <v>2.515231842306495</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.68620143548533</v>
+        <v>26.11429049890833</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.77752885379435</v>
+        <v>28.74249857295787</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.728641829139892</v>
+        <v>6.165090113416543</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>50.49097631585131</v>
+        <v>49.77132958751061</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>55.17975430852402</v>
+        <v>55.58002966920746</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>56.31565652270193</v>
+        <v>53.72317466010213</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>56.63246110788589</v>
+        <v>54.8239998635779</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>58.19251192979611</v>
+        <v>56.55184854897645</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>7.679463431852987</v>
+        <v>4.867925989912127</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.98140869283188</v>
+        <v>35.3287806404756</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.11019141612343</v>
+        <v>40.2842282824512</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.63973089551481</v>
+        <v>8.781996172971869</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.92051557118727</v>
+        <v>31.25156526531976</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.90115349574822</v>
+        <v>32.8060301559463</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>4.234429325352622</v>
+        <v>2.515013203546737</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.41122554995357</v>
+        <v>24.77646671182075</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.41905127015952</v>
+        <v>28.94678747751926</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.961215273262951</v>
+        <v>4.877579209053685</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.0370175299804</v>
+        <v>39.1515005558273</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>51.19516844362617</v>
+        <v>45.42510036348348</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.06550449515503</v>
+        <v>39.81483574025479</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>50.30959991183065</v>
+        <v>48.07538875272349</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>57.33372452824526</v>
+        <v>51.30668253538598</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>6.792014505867012</v>
+        <v>5.701786605473796</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>40.83139933340061</v>
+        <v>40.37227489418751</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.99070676966166</v>
+        <v>46.67970744570408</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.877925034715901</v>
+        <v>7.386521121084115</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.80111388264169</v>
+        <v>29.98288990249313</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>40.06716822539667</v>
+        <v>38.13292834967563</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>2.103251510331766</v>
+        <v>2.515240136132565</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.32061857528965</v>
+        <v>24.67867230608716</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.05433048585761</v>
+        <v>32.75545603946065</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.8282835218738</v>
+        <v>5.821426359758675</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.83112171248492</v>
+        <v>40.74819627149961</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>61.93604665780669</v>
+        <v>57.82730255347328</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>55.10405128386864</v>
+        <v>52.84590665511028</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>69.2045546435086</v>
+        <v>68.68051665819928</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>76.37773294407256</v>
+        <v>72.3412150309304</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.713515746619329</v>
+        <v>5.142762827219162</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>55.10722405673381</v>
+        <v>51.71614090315712</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>64.65742557005895</v>
+        <v>61.72034320960579</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>9.716494651194537</v>
+        <v>13.05920665757397</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.33220701461989</v>
+        <v>14.8393601099628</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.60850756374432</v>
+        <v>15.71922204365585</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1.50470951058767</v>
+        <v>3.02774490165088</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.39691207898212</v>
+        <v>12.69510910830976</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.99974148138923</v>
+        <v>13.45777075791283</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>8.11338111077897</v>
+        <v>11.77965081578201</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.2651943750671</v>
+        <v>22.26539229977492</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.30867290009113</v>
+        <v>24.09817408586682</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.9361947831867</v>
+        <v>20.85592274846958</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.33341782994549</v>
+        <v>24.17150956415491</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.23866109605519</v>
+        <v>26.85717097051349</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>12.14631317595895</v>
+        <v>11.49205706272101</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.04916652180612</v>
+        <v>15.49805238968253</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.82275645291308</v>
+        <v>18.80807563158251</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.521427443602416</v>
+        <v>8.032479678722286</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.82939551466815</v>
+        <v>21.61328102748281</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.73876759568942</v>
+        <v>30.08742049415337</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>3.207959273131124</v>
+        <v>1.722589941543028</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.82365612026595</v>
+        <v>10.41065041573446</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.70351440974436</v>
+        <v>23.28379910821036</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.597629778371996</v>
+        <v>4.307688890613022</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.70537528450842</v>
+        <v>19.91962656078431</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>42.04477840986327</v>
+        <v>40.42442971789375</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.3833534719823</v>
+        <v>26.3602711943151</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.90082015111061</v>
+        <v>35.83556287706347</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>48.58586277572404</v>
+        <v>46.27653465618603</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.818929758358404</v>
+        <v>4.26311728026451</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.09322259919614</v>
+        <v>28.1964211923987</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.39533005582653</v>
+        <v>37.94134273349968</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.56902492888711</v>
+        <v>14.82847238987123</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.99732594616698</v>
+        <v>29.98256561754856</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>37.22881001854691</v>
+        <v>36.20765312037537</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>3.321479190507244</v>
+        <v>2.830871516696885</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.06676447856533</v>
+        <v>21.39794441819643</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.01670137839076</v>
+        <v>30.27352028715548</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>8.131261349440496</v>
+        <v>7.01579962407094</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.95822332323999</v>
+        <v>35.21133616872651</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>53.78460309667252</v>
+        <v>51.17460384742081</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.92454520857918</v>
+        <v>43.56455836377972</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.63167015249187</v>
+        <v>51.94479492595298</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>62.35447482376743</v>
+        <v>57.82242307344119</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>5.336894866162766</v>
+        <v>4.838565457150896</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.76313239012877</v>
+        <v>37.18262511356697</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>58.55955201785717</v>
+        <v>54.96871908288016</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>14.62558741727632</v>
+        <v>15.14232252075817</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>19.58746577553188</v>
+        <v>21.78855453865743</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>24.71820367742417</v>
+        <v>24.73501120976568</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>3.067630481277245</v>
+        <v>3.565252940173103</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.3732182990599</v>
+        <v>25.05019755423943</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.68990404452447</v>
+        <v>25.74746726415569</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.67284051779153</v>
+        <v>13.8988972564289</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>43.44923796679223</v>
+        <v>41.42859794286484</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>44.87351162322284</v>
+        <v>42.64549753852281</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.53957754820455</v>
+        <v>30.06285956460686</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.67415090139471</v>
+        <v>33.72906067589079</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>40.98490231424155</v>
+        <v>39.87755914743848</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>11.59986451193678</v>
+        <v>12.1876460086585</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>35.42902329184217</v>
+        <v>33.82231888649019</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.30979111323991</v>
+        <v>38.52378048537652</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.48504545597805</v>
+        <v>7.079253749771912</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.90872336434455</v>
+        <v>23.50427751199852</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.25700145459738</v>
+        <v>34.26793795371295</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>4.110137832830031</v>
+        <v>2.502709639962472</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>19.83335054110643</v>
+        <v>15.40834833547042</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>37.64361625139287</v>
+        <v>35.42529012257586</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.739583382833985</v>
+        <v>5.45838781695479</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.12581167846205</v>
+        <v>26.47834839647941</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>44.95532817523906</v>
+        <v>43.80738480793153</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.37951248421372</v>
+        <v>24.72060252397887</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.29649663429288</v>
+        <v>36.87906117776089</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>54.31035092066449</v>
+        <v>52.90424640723245</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.867037563610342</v>
+        <v>4.823494557530179</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.71690193126803</v>
+        <v>31.1629749821126</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.31123729249843</v>
+        <v>39.03422523380193</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.68650260485596</v>
+        <v>10.28253064939721</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.49134136890765</v>
+        <v>23.97253245246453</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>33.87774499649897</v>
+        <v>33.997694283412</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>3.626032185319428</v>
+        <v>2.507416625959237</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.44979651267554</v>
+        <v>22.80030517207001</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.48176918817158</v>
+        <v>29.95195962127712</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>6.776608097467353</v>
+        <v>6.454549827157241</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>39.86538792087474</v>
+        <v>38.35489434060116</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.48339175066499</v>
+        <v>44.87026134609827</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.9167961150839</v>
+        <v>46.68226898873004</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>54.0886842088324</v>
+        <v>52.08298920906876</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>66.13588706038161</v>
+        <v>61.84639165153001</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4.688730278193947</v>
+        <v>3.888146788157343</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.36663454472095</v>
+        <v>29.68209962243765</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.78009424109389</v>
+        <v>48.42383198484696</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>17.65900063407437</v>
+        <v>17.84945495163758</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.13921438478857</v>
+        <v>23.41094479368514</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>35.87400026465072</v>
+        <v>34.66151709487244</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>6.651561758228208</v>
+        <v>3.898953024915219</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.14009303001436</v>
+        <v>43.17441440181793</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>46.13073110704653</v>
+        <v>44.73249367659455</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>15.53001248156791</v>
+        <v>12.25844566055819</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>63.04737466965413</v>
+        <v>63.94069271011931</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>64.2378270793551</v>
+        <v>64.43061366852473</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>56.41039382640456</v>
+        <v>53.30497966604137</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>55.70525940028656</v>
+        <v>53.05167559341531</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.30468950895409</v>
+        <v>56.30374496042495</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>17.32539710385782</v>
+        <v>18.22358515009832</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.17392880954372</v>
+        <v>21.37418139515204</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>65.25404792778531</v>
+        <v>64.01649516145986</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.45328668051584</v>
+        <v>24.37432609471285</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>35.09668778132603</v>
+        <v>34.55781908579058</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>38.90218981621847</v>
+        <v>35.76043977844624</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>6.238766754238704</v>
+        <v>3.847268173743164</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.96663997287705</v>
+        <v>28.60363170328253</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.69986164850985</v>
+        <v>33.45947605251179</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>11.15061235472669</v>
+        <v>9.671310131959888</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>47.2148334881608</v>
+        <v>47.46641935170543</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>54.27744120601448</v>
+        <v>52.1873995332394</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>48.45205473402996</v>
+        <v>47.15483045117051</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>54.12625294264398</v>
+        <v>54.81324911418935</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>59.24313391956133</v>
+        <v>55.44586752485804</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>19.4903802874447</v>
+        <v>21.08570400373387</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>49.50645064476599</v>
+        <v>46.08275539930156</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>54.9317307816335</v>
+        <v>51.22729449628578</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.1871020104042</v>
+        <v>25.15630514412889</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.76957837031387</v>
+        <v>35.12428699139505</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>42.84019672086391</v>
+        <v>39.71461654654754</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>5.221313524934779</v>
+        <v>3.831086854527491</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.0607201864771</v>
+        <v>32.17940799113186</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.86830428784891</v>
+        <v>36.04518120771662</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.25912225972235</v>
+        <v>9.721945941903428</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>57.12008380485332</v>
+        <v>54.72078585463167</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>67.12369299380308</v>
+        <v>64.52218653217767</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>63.59183003306339</v>
+        <v>60.22819054760451</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>69.55647926963405</v>
+        <v>66.73066111322544</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>77.74996260583741</v>
+        <v>73.08141977214551</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>17.53040954528841</v>
+        <v>17.1499184093477</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>57.05291528401737</v>
+        <v>54.79884959975907</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>66.4439225652784</v>
+        <v>62.43088704213284</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.212045633421628</v>
+        <v>6.711250615773103</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.57619804127319</v>
+        <v>22.57321019620568</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>31.45728822630034</v>
+        <v>31.88440581135595</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>3.03153476746381</v>
+        <v>2.502759241386187</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>27.98286187461466</v>
+        <v>27.71179289773792</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.36573333285599</v>
+        <v>28.01361402752007</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.152180305705432</v>
+        <v>6.005717966739859</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>47.77954019345616</v>
+        <v>45.80117129837631</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>52.71603994695949</v>
+        <v>51.0751575338023</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>52.33127619123</v>
+        <v>50.76025919713534</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>57.60784757175763</v>
+        <v>56.77824545936166</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>54.73647419615041</v>
+        <v>53.26125886533171</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>7.229402386280405</v>
+        <v>4.730321076692711</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>35.68325015514712</v>
+        <v>34.67978938063659</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>38.81170515940472</v>
+        <v>38.17990954926998</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.30299814345851</v>
+        <v>9.659213255760552</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.04660485958781</v>
+        <v>33.03539159915298</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.46020616615291</v>
+        <v>31.66628525144906</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>4.687952083635821</v>
+        <v>2.870957360278911</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>24.56910744333369</v>
+        <v>24.45226926146912</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.74191684405643</v>
+        <v>29.4594012068278</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>8.025622795823729</v>
+        <v>5.943854998083498</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>42.86520882885529</v>
+        <v>42.50425968093447</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>55.36008758685958</v>
+        <v>52.6724077544675</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>44.1252122568452</v>
+        <v>43.1175745976668</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>52.59719419179089</v>
+        <v>51.18258810425539</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>59.38100488094332</v>
+        <v>54.84319421563963</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>7.270906248042742</v>
+        <v>5.639830356620589</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>51.34280353319511</v>
+        <v>44.32247152208238</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.26070735433059</v>
+        <v>48.86211064676957</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.93140689519733</v>
+        <v>9.2360895091674</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.1104353160549</v>
+        <v>32.215383954952</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>39.24999795483344</v>
+        <v>39.96579790761952</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>2.757100015539159</v>
+        <v>2.652582153481152</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.23691740583925</v>
+        <v>23.90917831013813</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.58580418537918</v>
+        <v>30.50394345740198</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.371135257767925</v>
+        <v>5.764925864902644</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.26951205094171</v>
+        <v>40.97213644738986</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>60.8019344205827</v>
+        <v>55.4269437434068</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>55.91978069978573</v>
+        <v>54.51856597269269</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>65.23451278010268</v>
+        <v>63.44120859782561</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>75.23712987943046</v>
+        <v>71.05753285827062</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.431962767853328</v>
+        <v>4.805602514438295</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>47.61194131941078</v>
+        <v>44.17754580913402</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>62.27944651269109</v>
+        <v>60.20545936885094</v>
       </c>
     </row>
   </sheetData>
